--- a/Laboratarios/TP_Laboratorio_1/Mediciones/Mediciones&Graficos.xlsx
+++ b/Laboratarios/TP_Laboratorio_1/Mediciones/Mediciones&Graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://frbautneduar-my.sharepoint.com/personal/talbanesi_frba_utn_edu_ar/Documents/UTN/05 - UTN Electrónica 2023/01 - Teoria de Circuitos II/GitHub/TC2_2023/Laboratarios/TP_Laboratorio_1/Mediciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{26C546D6-6B55-4450-A584-A498506A9DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A01199A-A459-4E99-9617-5AC906B6D51F}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{26C546D6-6B55-4450-A584-A498506A9DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20D44570-FEA7-417D-96EF-5908CD39BD47}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{57FEDBF3-E544-4072-8A4E-341485415195}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{57FEDBF3-E544-4072-8A4E-341485415195}"/>
   </bookViews>
   <sheets>
     <sheet name="Mediciones" sheetId="1" r:id="rId1"/>
@@ -2402,7 +2402,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{898AA0CC-62C9-4006-9A45-FD958B916811}" name="Tabla1" displayName="Tabla1" ref="A1:J32" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:J32" xr:uid="{898AA0CC-62C9-4006-9A45-FD958B916811}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{D357CF27-A4BE-45F2-A69D-18B0EFF0298F}" name="Frecuencia [Hz]" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{FA24875B-B8D1-42CF-BFB9-AC35646C72A2}" name="Entrada Vpp [V]" dataDxfId="8"/>
@@ -2728,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C7753D-9CAD-4793-8847-A4CAA472464C}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection sqref="A1:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3939,7 +3938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B39167D-F1B1-44C7-836E-F66C9880645A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>

--- a/Laboratarios/TP_Laboratorio_1/Mediciones/Mediciones&Graficos.xlsx
+++ b/Laboratarios/TP_Laboratorio_1/Mediciones/Mediciones&Graficos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://frbautneduar-my.sharepoint.com/personal/talbanesi_frba_utn_edu_ar/Documents/UTN/05 - UTN Electrónica 2023/01 - Teoria de Circuitos II/GitHub/TC2_2023/Laboratarios/TP_Laboratorio_1/Mediciones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{26C546D6-6B55-4450-A584-A498506A9DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20D44570-FEA7-417D-96EF-5908CD39BD47}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{26C546D6-6B55-4450-A584-A498506A9DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DECE116-5FC1-41BE-9FEF-4A2EEB2B0193}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{57FEDBF3-E544-4072-8A4E-341485415195}"/>
   </bookViews>
@@ -200,7 +200,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -705,7 +705,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2396,10 +2396,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{898AA0CC-62C9-4006-9A45-FD958B916811}" name="Tabla1" displayName="Tabla1" ref="A1:J32" totalsRowShown="0" headerRowDxfId="10">
   <tableColumns count="10">
@@ -2429,7 +2425,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2727,11 +2723,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C7753D-9CAD-4793-8847-A4CAA472464C}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection sqref="A1:J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
@@ -3030,7 +3026,7 @@
         <v>2.686061718819273</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="5"/>
+        <f>H8*180/PI()</f>
         <v>153.89999999999998</v>
       </c>
       <c r="J8" t="s">
@@ -3942,7 +3938,7 @@
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
